--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOWNLOADED_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C401C4E-C01F-4489-A5BE-399D8A80267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A7328-3FFB-41E3-BB6B-31082354F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19755" yWindow="795" windowWidth="17475" windowHeight="13230" xr2:uid="{769A7B82-5E06-4DE7-96E3-C18E3F243151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan-24 GDS" sheetId="1" r:id="rId1"/>
+    <sheet name="GDS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
